--- a/biology/Zoologie/Cyclocosmia/Cyclocosmia.xlsx
+++ b/biology/Zoologie/Cyclocosmia/Cyclocosmia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclocosmia est un genre d'araignées mygalomorphes de la famille des Halonoproctidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclocosmia est un genre d'araignées mygalomorphes de la famille des Halonoproctidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie de l'Est, en Asie du Sud-Est, en Amérique du Nord et en Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie de l'Est, en Asie du Sud-Est, en Amérique du Nord et en Amérique centrale.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 10/04/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 10/04/2024) :
 Cyclocosmia abramovi Sherwood, 2024
 Cyclocosmia lannaensis Schwendinger, 2005
 Cyclocosmia latusicosta Zhu, J. X. Zhang &amp; F. Zhang, 2006
@@ -584,11 +600,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Ausserer en 1871 dans les Theraphosidae. Il est placé dans les Halonoproctidae par Godwin, Opatova, Garrison, Hamilton et Bond en 2018[2].
-Halonoproctus[3] a été placé en synonymie par Simon en 1903[4].
-Chorizops[5], placé en synonymie par Banks en 1910[6], relevé de synonymie par Petrunkevitch en 1911[7], a été placé en synonymie par Gertsch et Platnick en 1975[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Ausserer en 1871 dans les Theraphosidae. Il est placé dans les Halonoproctidae par Godwin, Opatova, Garrison, Hamilton et Bond en 2018.
+Halonoproctus a été placé en synonymie par Simon en 1903.
+Chorizops, placé en synonymie par Banks en 1910, relevé de synonymie par Petrunkevitch en 1911, a été placé en synonymie par Gertsch et Platnick en 1975.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ausserer, 1871 : « Beiträge zur Kenntniss der Arachniden-Familie der Territelariae Thorell (Mygalidae Autor). » Verhandlungen der Kaiserlich-Königlichen Zoologisch-Botanischen Gesellschaft in Wien, vol. 21, p. 117-224 (texte intégral).</t>
         </is>
